--- a/backend/Final_Category.xlsx
+++ b/backend/Final_Category.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$2362</definedName>
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2362"/>
+  <dimension ref="A1:D2378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52470,6 +52470,326 @@
         </is>
       </c>
     </row>
+    <row r="2363">
+      <c r="A2363" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2363" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2363" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2363" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2364" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2364" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2364" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2365" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2365" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2365" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2366" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2366" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2366" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2367" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2367" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2367" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2368" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2368" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2368" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2369" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2369" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2369" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2370" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2370" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2370" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2371" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2371" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2371" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2372" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2372" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2372" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2373" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2373" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2373" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2374" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2374" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2374" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2375" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2375" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2375" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2376" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2376" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2376" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" s="0" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2377" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2377" s="0" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2377" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
+        </is>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>Bank Interest Received</t>
+        </is>
+      </c>
+      <c r="D2378" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$A$1:$D$2362"/>
   <hyperlinks>

--- a/backend/Final_Category.xlsx
+++ b/backend/Final_Category.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$2362</definedName>

--- a/backend/Final_Category.xlsx
+++ b/backend/Final_Category.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$2362</definedName>

--- a/backend/Final_Category.xlsx
+++ b/backend/Final_Category.xlsx
@@ -52771,22 +52771,22 @@
       </c>
     </row>
     <row r="2378">
-      <c r="A2378" t="inlineStr">
+      <c r="A2378" s="0" t="inlineStr">
         <is>
           <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
         </is>
       </c>
-      <c r="B2378" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2378" t="inlineStr">
+      <c r="B2378" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="C2378" s="0" t="inlineStr">
         <is>
           <t>Bank Interest Received</t>
         </is>
       </c>
-      <c r="D2378" t="b">
+      <c r="D2378" s="0" t="b">
         <v>0</v>
       </c>
     </row>

--- a/backend/Final_Category.xlsx
+++ b/backend/Final_Category.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$2362</definedName>
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2378"/>
+  <dimension ref="A1:D2362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52470,326 +52470,6 @@
         </is>
       </c>
     </row>
-    <row r="2363">
-      <c r="A2363" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2363" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2363" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2363" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2364">
-      <c r="A2364" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2364" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2364" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2364" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2365" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2365" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2365" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2366" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2366" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2366" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2367">
-      <c r="A2367" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2367" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2367" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2367" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2368">
-      <c r="A2368" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2368" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2368" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2368" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2369">
-      <c r="A2369" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2369" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2369" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2369" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2370">
-      <c r="A2370" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2370" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2370" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2370" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2371">
-      <c r="A2371" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2371" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2371" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2371" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2372">
-      <c r="A2372" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2372" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2372" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2372" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2373">
-      <c r="A2373" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2373" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2373" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2373" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2374">
-      <c r="A2374" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2374" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2374" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2374" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2375">
-      <c r="A2375" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2375" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2375" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2375" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2376">
-      <c r="A2376" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2376" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2376" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2376" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2377">
-      <c r="A2377" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2377" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2377" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2377" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2378">
-      <c r="A2378" s="0" t="inlineStr">
-        <is>
-          <t>upi-mraiyazanwarqures-qureshi.aiyaz123-3@okaxis-mahb0000470-309653603841-upi</t>
-        </is>
-      </c>
-      <c r="B2378" s="0" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2378" s="0" t="inlineStr">
-        <is>
-          <t>Bank Interest Received</t>
-        </is>
-      </c>
-      <c r="D2378" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="$A$1:$D$2362"/>
   <hyperlinks>

--- a/backend/Final_Category.xlsx
+++ b/backend/Final_Category.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,12 +47,6 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -222,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -272,13 +266,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -287,10 +278,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -658,7 +649,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2364"/>
+  <dimension ref="A1:D2362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,29 +657,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28.86214285714286" bestFit="1" customWidth="1" style="21" min="1" max="1"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
-    <col width="25.43357142857143" bestFit="1" customWidth="1" style="21" min="3" max="3"/>
-    <col width="24.57642857142857" bestFit="1" customWidth="1" style="21" min="4" max="4"/>
+    <col width="28.86214285714286" bestFit="1" customWidth="1" style="20" min="1" max="1"/>
+    <col width="11.43357142857143" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="25.43357142857143" bestFit="1" customWidth="1" style="20" min="3" max="3"/>
+    <col width="24.57642857142857" bestFit="1" customWidth="1" style="20" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="22" t="inlineStr">
+      <c r="A1" s="21" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="B1" s="22" t="inlineStr">
+      <c r="B1" s="21" t="inlineStr">
         <is>
           <t>Debit / Credit</t>
         </is>
       </c>
-      <c r="C1" s="22" t="inlineStr">
+      <c r="C1" s="21" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="D1" s="23" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Particulars</t>
         </is>
@@ -4478,7 +4469,7 @@
         </is>
       </c>
     </row>
-    <row r="174" ht="17.25" customHeight="1">
+    <row r="174" ht="19.5" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
           <t>kfcsapphir</t>
@@ -4500,7 +4491,7 @@
         </is>
       </c>
     </row>
-    <row r="175" ht="17.25" customHeight="1">
+    <row r="175" ht="19.5" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
           <t>mcdonalds</t>
@@ -4522,7 +4513,7 @@
         </is>
       </c>
     </row>
-    <row r="176" ht="17.25" customHeight="1">
+    <row r="176" ht="19.5" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
           <t>pizza</t>
@@ -4544,7 +4535,7 @@
         </is>
       </c>
     </row>
-    <row r="177" ht="17.25" customHeight="1">
+    <row r="177" ht="19.5" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
           <t>swiggy</t>
@@ -4566,7 +4557,7 @@
         </is>
       </c>
     </row>
-    <row r="178" ht="17.25" customHeight="1">
+    <row r="178" ht="19.5" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
           <t>theobroma</t>
@@ -4588,7 +4579,7 @@
         </is>
       </c>
     </row>
-    <row r="179" ht="17.25" customHeight="1">
+    <row r="179" ht="19.5" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
           <t>zomato</t>
@@ -4610,7 +4601,7 @@
         </is>
       </c>
     </row>
-    <row r="180" ht="17.25" customHeight="1">
+    <row r="180" ht="19.5" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
           <t>ackogen</t>
@@ -4632,7 +4623,7 @@
         </is>
       </c>
     </row>
-    <row r="181" ht="17.25" customHeight="1">
+    <row r="181" ht="19.5" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
           <t>adityabirlahealth</t>
@@ -4654,7 +4645,7 @@
         </is>
       </c>
     </row>
-    <row r="182" ht="17.25" customHeight="1">
+    <row r="182" ht="19.5" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
           <t>agricultureinsurance</t>
@@ -4676,7 +4667,7 @@
         </is>
       </c>
     </row>
-    <row r="183" ht="17.25" customHeight="1">
+    <row r="183" ht="19.5" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
           <t>bajajallianzgen</t>
@@ -4698,7 +4689,7 @@
         </is>
       </c>
     </row>
-    <row r="184" ht="17.25" customHeight="1">
+    <row r="184" ht="19.5" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
           <t>bhartiaxagen</t>
@@ -4720,7 +4711,7 @@
         </is>
       </c>
     </row>
-    <row r="185" ht="17.25" customHeight="1">
+    <row r="185" ht="19.5" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
           <t>carehealth</t>
@@ -4742,7 +4733,7 @@
         </is>
       </c>
     </row>
-    <row r="186" ht="17.25" customHeight="1">
+    <row r="186" ht="19.5" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
           <t>cholamandalammsgen</t>
@@ -4764,7 +4755,7 @@
         </is>
       </c>
     </row>
-    <row r="187" ht="17.25" customHeight="1">
+    <row r="187" ht="19.5" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
           <t>ecgc</t>
@@ -4786,7 +4777,7 @@
         </is>
       </c>
     </row>
-    <row r="188" ht="17.25" customHeight="1">
+    <row r="188" ht="19.5" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
           <t>edelweissgen</t>
@@ -4808,7 +4799,7 @@
         </is>
       </c>
     </row>
-    <row r="189" ht="17.25" customHeight="1">
+    <row r="189" ht="19.5" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
           <t>futuregenerali</t>
@@ -4830,7 +4821,7 @@
         </is>
       </c>
     </row>
-    <row r="190" ht="17.25" customHeight="1">
+    <row r="190" ht="19.5" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
           <t>godigitgen</t>
@@ -4852,7 +4843,7 @@
         </is>
       </c>
     </row>
-    <row r="191" ht="17.25" customHeight="1">
+    <row r="191" ht="19.5" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
           <t>hdfcergogen</t>
@@ -4874,7 +4865,7 @@
         </is>
       </c>
     </row>
-    <row r="192" ht="17.25" customHeight="1">
+    <row r="192" ht="19.5" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
           <t>icicilombardgen</t>
@@ -4896,7 +4887,7 @@
         </is>
       </c>
     </row>
-    <row r="193" ht="17.25" customHeight="1">
+    <row r="193" ht="19.5" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
           <t>icici lombard</t>
@@ -4918,7 +4909,7 @@
         </is>
       </c>
     </row>
-    <row r="194" ht="17.25" customHeight="1">
+    <row r="194" ht="19.5" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
           <t>iffcotokiogen</t>
@@ -4940,7 +4931,7 @@
         </is>
       </c>
     </row>
-    <row r="195" ht="17.25" customHeight="1">
+    <row r="195" ht="19.5" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
           <t>iffco-tokiogen</t>
@@ -4962,7 +4953,7 @@
         </is>
       </c>
     </row>
-    <row r="196" ht="17.25" customHeight="1">
+    <row r="196" ht="19.5" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
           <t>kotakgen</t>
@@ -4984,7 +4975,7 @@
         </is>
       </c>
     </row>
-    <row r="197" ht="17.25" customHeight="1">
+    <row r="197" ht="19.5" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
           <t>kotakmahindragen</t>
@@ -33854,7 +33845,7 @@
           <t>lpgsubsidy</t>
         </is>
       </c>
-      <c r="B1509" s="17" t="inlineStr">
+      <c r="B1509" s="4" t="inlineStr">
         <is>
           <t>Credit</t>
         </is>
@@ -34333,7 +34324,7 @@
       </c>
     </row>
     <row r="1531" ht="17.25" customHeight="1">
-      <c r="A1531" s="18" t="inlineStr">
+      <c r="A1531" s="17" t="inlineStr">
         <is>
           <t>refundpay</t>
         </is>
@@ -35169,7 +35160,7 @@
       </c>
     </row>
     <row r="1569" ht="17.25" customHeight="1">
-      <c r="A1569" s="19" t="inlineStr">
+      <c r="A1569" s="18" t="inlineStr">
         <is>
           <t>booking.com</t>
         </is>
@@ -35279,7 +35270,7 @@
       </c>
     </row>
     <row r="1574" ht="17.25" customHeight="1">
-      <c r="A1574" s="19" t="inlineStr">
+      <c r="A1574" s="18" t="inlineStr">
         <is>
           <t>expedia.com</t>
         </is>
@@ -52365,7 +52356,7 @@
       </c>
     </row>
     <row r="2351" ht="17.25" customHeight="1">
-      <c r="A2351" s="20" t="inlineStr">
+      <c r="A2351" s="19" t="inlineStr">
         <is>
           <t>reversal-charges</t>
         </is>
@@ -52625,50 +52616,6 @@
       <c r="D2362" s="5" t="inlineStr">
         <is>
           <t>Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="2363">
-      <c r="A2363" t="inlineStr">
-        <is>
-          <t>openingbalance</t>
-        </is>
-      </c>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>Life insurance</t>
-        </is>
-      </c>
-      <c r="D2363" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr">
-        <is>
-          <t>openingbalance</t>
-        </is>
-      </c>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Opening Balance</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr">
-        <is>
-          <t>Others</t>
         </is>
       </c>
     </row>

--- a/backend/Final_Category.xlsx
+++ b/backend/Final_Category.xlsx
@@ -649,7 +649,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2362"/>
+  <dimension ref="A1:D2364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52619,6 +52619,50 @@
         </is>
       </c>
     </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>upi-vivantapetroleum-paytmqr281005050101p30717s1oxug@paytm-pytm0123456-310863665271-upi</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>Debit</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>aiyaz</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>Important Expenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>debitcardissuancefee170223-mir2411077945410</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>Debit</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>manish</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>Important Expenses</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
